--- a/scheme/Seta/issues_metadados_seta.xlsx
+++ b/scheme/Seta/issues_metadados_seta.xlsx
@@ -63626,7 +63626,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -63641,7 +63641,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -63656,7 +63656,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -63671,7 +63671,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -63686,7 +63686,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -63762,7 +63762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -63788,7 +63788,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -63814,7 +63814,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -63840,7 +63840,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -63866,7 +63866,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -63892,7 +63892,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -63922,7 +63922,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -63952,7 +63952,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -63982,7 +63982,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -64012,7 +64012,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -64042,7 +64042,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -64072,7 +64072,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -64102,7 +64102,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -64132,7 +64132,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -64162,7 +64162,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -64192,7 +64192,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -64222,7 +64222,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -64252,7 +64252,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -64282,7 +64282,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -64312,7 +64312,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -64342,7 +64342,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -64372,7 +64372,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -64402,7 +64402,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -64432,7 +64432,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -64462,7 +64462,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -64492,7 +64492,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -64522,7 +64522,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -64552,7 +64552,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -64582,7 +64582,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -64612,7 +64612,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -64642,7 +64642,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -64672,7 +64672,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -64702,7 +64702,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -64732,7 +64732,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -64762,7 +64762,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -64792,7 +64792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -64822,7 +64822,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -64852,7 +64852,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -64882,7 +64882,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -64912,7 +64912,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -64942,7 +64942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -64972,7 +64972,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -65002,7 +65002,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -65032,7 +65032,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -65062,7 +65062,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -65092,7 +65092,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -65122,7 +65122,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -65152,7 +65152,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -65182,7 +65182,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -65212,7 +65212,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -65242,7 +65242,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -65272,7 +65272,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -65302,7 +65302,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -65332,7 +65332,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -65362,7 +65362,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -65392,7 +65392,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -65422,7 +65422,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -65452,7 +65452,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -65482,7 +65482,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -65512,7 +65512,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -65542,7 +65542,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -65572,7 +65572,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -65602,7 +65602,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -65632,7 +65632,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -65662,7 +65662,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -65692,7 +65692,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -65722,7 +65722,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -65752,7 +65752,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -65782,7 +65782,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -65812,7 +65812,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -65842,7 +65842,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -65872,7 +65872,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -65902,7 +65902,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -65932,7 +65932,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -65962,7 +65962,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -65992,7 +65992,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -66022,7 +66022,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -66052,7 +66052,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -66082,7 +66082,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -66112,7 +66112,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -66142,7 +66142,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -66172,7 +66172,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -66202,7 +66202,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -66232,7 +66232,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -66262,7 +66262,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -66292,7 +66292,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -66322,7 +66322,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -66352,7 +66352,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -66382,7 +66382,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -66412,7 +66412,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -66442,7 +66442,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -66472,7 +66472,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -66502,7 +66502,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -66532,7 +66532,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -66562,7 +66562,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -66592,7 +66592,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -66622,7 +66622,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -66652,7 +66652,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -66682,7 +66682,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -66712,7 +66712,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -66742,7 +66742,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -66772,7 +66772,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -66802,7 +66802,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -66832,7 +66832,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -66862,7 +66862,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -66892,7 +66892,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -66922,7 +66922,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -66952,7 +66952,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -66982,7 +66982,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -67012,7 +67012,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -67042,7 +67042,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -67072,7 +67072,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -67102,7 +67102,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -67132,7 +67132,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -67162,7 +67162,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -67192,7 +67192,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -67222,7 +67222,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -67252,7 +67252,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -67282,7 +67282,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -67312,7 +67312,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -67342,7 +67342,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -67372,7 +67372,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -67402,7 +67402,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -67432,7 +67432,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -67462,7 +67462,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -67492,7 +67492,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -67522,7 +67522,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -67552,7 +67552,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -67582,7 +67582,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -67612,7 +67612,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -67642,7 +67642,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -67672,7 +67672,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -67702,7 +67702,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -67732,7 +67732,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -67762,7 +67762,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -67792,7 +67792,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -67822,7 +67822,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -67852,7 +67852,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -67882,7 +67882,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -67912,7 +67912,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -67942,7 +67942,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -67972,7 +67972,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -68002,7 +68002,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -68032,7 +68032,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -68062,7 +68062,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -68092,7 +68092,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -68122,7 +68122,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -68152,7 +68152,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -68182,7 +68182,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -68212,7 +68212,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -68242,7 +68242,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -68272,7 +68272,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -68302,7 +68302,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -68332,7 +68332,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -68362,7 +68362,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -68392,7 +68392,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -68422,7 +68422,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -68452,7 +68452,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -68482,7 +68482,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -68512,7 +68512,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -68542,7 +68542,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -68572,7 +68572,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -68602,7 +68602,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -68632,7 +68632,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -68662,7 +68662,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -68692,7 +68692,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -68722,7 +68722,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -68752,7 +68752,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -68782,7 +68782,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -68812,7 +68812,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -68842,7 +68842,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -68872,7 +68872,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -68902,7 +68902,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -68932,7 +68932,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -68962,7 +68962,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -68992,7 +68992,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -69022,7 +69022,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -69052,7 +69052,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -69082,7 +69082,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -69112,7 +69112,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -69142,7 +69142,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -69172,7 +69172,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -69202,7 +69202,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -69232,7 +69232,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -69262,7 +69262,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -69292,7 +69292,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -69322,7 +69322,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -69352,7 +69352,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -69382,7 +69382,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -69412,7 +69412,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -69442,7 +69442,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -69472,7 +69472,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -69502,7 +69502,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -69532,7 +69532,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -69562,7 +69562,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -69592,7 +69592,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -69622,7 +69622,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -69652,7 +69652,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -69682,7 +69682,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -69712,7 +69712,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -69742,7 +69742,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -69772,7 +69772,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -69802,7 +69802,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -69832,7 +69832,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -69862,7 +69862,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -69892,7 +69892,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -69922,7 +69922,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -69952,7 +69952,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -69982,7 +69982,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -70012,7 +70012,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -70042,7 +70042,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -70072,7 +70072,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -70102,7 +70102,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -70132,7 +70132,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -70162,7 +70162,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -70192,7 +70192,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -70222,7 +70222,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -70252,7 +70252,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -70282,7 +70282,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -70312,7 +70312,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -70342,7 +70342,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -70372,7 +70372,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -70402,7 +70402,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -70432,7 +70432,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -70462,7 +70462,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -70492,7 +70492,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -70522,7 +70522,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -70552,7 +70552,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -70582,7 +70582,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -70612,7 +70612,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -70642,7 +70642,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -70672,7 +70672,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -70702,7 +70702,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -70732,7 +70732,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -70762,7 +70762,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -70792,7 +70792,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -70822,7 +70822,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -70852,7 +70852,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -70882,7 +70882,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -70912,7 +70912,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -70942,7 +70942,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -70972,7 +70972,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -71002,7 +71002,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -71032,7 +71032,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -71062,7 +71062,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -71092,7 +71092,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -71122,7 +71122,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -71152,7 +71152,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -71182,7 +71182,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -71212,7 +71212,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -71242,7 +71242,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -71272,7 +71272,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -71302,7 +71302,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -71332,7 +71332,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -71362,7 +71362,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -71392,7 +71392,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -71422,7 +71422,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -71452,7 +71452,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -71482,7 +71482,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -71512,7 +71512,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -71542,7 +71542,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -71572,7 +71572,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -71602,7 +71602,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -71632,7 +71632,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -71662,7 +71662,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -71692,7 +71692,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -71722,7 +71722,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -71752,7 +71752,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -71782,7 +71782,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -71812,7 +71812,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -71842,7 +71842,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -71872,7 +71872,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -71902,7 +71902,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -71932,7 +71932,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -71962,7 +71962,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -71992,7 +71992,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -72022,7 +72022,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -72052,7 +72052,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -72082,7 +72082,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -72112,7 +72112,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -72142,7 +72142,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -72172,7 +72172,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -72202,7 +72202,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -72232,7 +72232,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -72262,7 +72262,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -72292,7 +72292,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -72322,7 +72322,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -72352,7 +72352,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -72382,7 +72382,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -72412,7 +72412,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -72442,7 +72442,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -72472,7 +72472,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -72502,7 +72502,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -72532,7 +72532,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -72562,7 +72562,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -72592,7 +72592,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -72622,7 +72622,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -72652,7 +72652,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -72682,7 +72682,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -72712,7 +72712,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -72742,7 +72742,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -72772,7 +72772,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -72802,7 +72802,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -72832,7 +72832,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -72862,7 +72862,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -72892,7 +72892,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -72922,7 +72922,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -72952,7 +72952,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -72982,7 +72982,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -73012,7 +73012,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -73042,7 +73042,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -73072,7 +73072,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -73102,7 +73102,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -73132,7 +73132,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -73162,7 +73162,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -73192,7 +73192,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -73222,7 +73222,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -73252,7 +73252,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -73282,7 +73282,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -73312,7 +73312,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -73342,7 +73342,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -73372,7 +73372,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -73402,7 +73402,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -73432,7 +73432,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -73462,7 +73462,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -73492,7 +73492,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -73522,7 +73522,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -73552,7 +73552,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -73582,7 +73582,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -73612,7 +73612,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -73642,7 +73642,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -73672,7 +73672,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -73702,7 +73702,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -73732,7 +73732,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -73762,7 +73762,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -73792,7 +73792,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -73822,7 +73822,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -73852,7 +73852,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -73882,7 +73882,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -73912,7 +73912,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -73942,7 +73942,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -73972,7 +73972,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -74002,7 +74002,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -74032,7 +74032,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -74062,7 +74062,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -74092,7 +74092,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -74122,7 +74122,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -74152,7 +74152,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -74182,7 +74182,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -74212,7 +74212,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -74242,7 +74242,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -74272,7 +74272,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -74302,7 +74302,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -74332,7 +74332,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -74362,7 +74362,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -74392,7 +74392,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -74422,7 +74422,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -74452,7 +74452,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -74482,7 +74482,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -74512,7 +74512,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -74542,7 +74542,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -74572,7 +74572,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -74602,7 +74602,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -74632,7 +74632,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -74662,7 +74662,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -74692,7 +74692,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -74722,7 +74722,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -74752,7 +74752,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -74782,7 +74782,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -74812,7 +74812,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -74842,7 +74842,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -74872,7 +74872,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -74902,7 +74902,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -74932,7 +74932,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -74962,7 +74962,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -74992,7 +74992,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -75022,7 +75022,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -75052,7 +75052,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -75082,7 +75082,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -75112,7 +75112,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -75142,7 +75142,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -75172,7 +75172,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -75202,7 +75202,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -75232,7 +75232,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -75262,7 +75262,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -75292,7 +75292,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -75322,7 +75322,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -75352,7 +75352,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -75382,7 +75382,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -75412,7 +75412,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -75442,7 +75442,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -75472,7 +75472,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -75502,7 +75502,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -75532,7 +75532,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -75562,7 +75562,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -75592,7 +75592,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -75622,7 +75622,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -75652,7 +75652,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -75682,7 +75682,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -75712,7 +75712,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -75742,7 +75742,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -75772,7 +75772,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -75802,7 +75802,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -75832,7 +75832,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -75862,7 +75862,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -75892,7 +75892,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -75922,7 +75922,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -75952,7 +75952,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -75982,7 +75982,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -76012,7 +76012,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -76042,7 +76042,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -76072,7 +76072,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -76102,7 +76102,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -76132,7 +76132,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -76162,7 +76162,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -76192,7 +76192,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -76222,7 +76222,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -76252,7 +76252,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -76282,7 +76282,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -76312,7 +76312,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -76342,7 +76342,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -76372,7 +76372,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -76402,7 +76402,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -76432,7 +76432,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -76462,7 +76462,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -76492,7 +76492,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -76522,7 +76522,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -76552,7 +76552,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -76582,7 +76582,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -76612,7 +76612,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -76642,7 +76642,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -76672,7 +76672,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -76702,7 +76702,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -76732,7 +76732,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -76762,7 +76762,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -76792,7 +76792,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -76822,7 +76822,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -76852,7 +76852,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -76882,7 +76882,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -76912,7 +76912,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -76942,7 +76942,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -76972,7 +76972,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -77002,7 +77002,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -77032,7 +77032,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -77062,7 +77062,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -77092,7 +77092,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -77122,7 +77122,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -77152,7 +77152,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -77182,7 +77182,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -77212,7 +77212,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -77242,7 +77242,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -77272,7 +77272,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -77302,7 +77302,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -77332,7 +77332,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -77362,7 +77362,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -77392,7 +77392,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -77422,7 +77422,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -77452,7 +77452,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -77482,7 +77482,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -77512,7 +77512,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -77542,7 +77542,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -77572,7 +77572,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -77602,7 +77602,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -77632,7 +77632,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -77662,7 +77662,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -77692,7 +77692,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -77722,7 +77722,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -77752,7 +77752,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -77782,7 +77782,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -77812,7 +77812,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -77842,7 +77842,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -77872,7 +77872,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -77902,7 +77902,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -77932,7 +77932,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -77962,7 +77962,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -77992,7 +77992,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -78022,7 +78022,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -78052,7 +78052,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -78082,7 +78082,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -78112,7 +78112,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -78142,7 +78142,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -78172,7 +78172,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -78202,7 +78202,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -78232,7 +78232,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -78262,7 +78262,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -78292,7 +78292,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -78322,7 +78322,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -78352,7 +78352,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -78382,7 +78382,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -78412,7 +78412,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -78442,7 +78442,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -78472,7 +78472,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -78502,7 +78502,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -78532,7 +78532,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -78562,7 +78562,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -78592,7 +78592,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -78622,7 +78622,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -78652,7 +78652,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -78682,7 +78682,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -78712,7 +78712,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -78742,7 +78742,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -78772,7 +78772,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -78802,7 +78802,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -78832,7 +78832,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -78862,7 +78862,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -78892,7 +78892,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -78922,7 +78922,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -78952,7 +78952,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -78982,7 +78982,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -79012,7 +79012,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -79042,7 +79042,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -79072,7 +79072,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -79102,7 +79102,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -79132,7 +79132,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -79162,7 +79162,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -79192,7 +79192,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -79222,7 +79222,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -79252,7 +79252,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -79282,7 +79282,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -79312,7 +79312,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -79342,7 +79342,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -79372,7 +79372,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -79402,7 +79402,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -79432,7 +79432,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -79462,7 +79462,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -79492,7 +79492,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -79522,7 +79522,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -79552,7 +79552,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -79582,7 +79582,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -79612,7 +79612,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -79642,7 +79642,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -79672,7 +79672,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -79702,7 +79702,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -79732,7 +79732,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -79762,7 +79762,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -79792,7 +79792,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -79822,7 +79822,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -79852,7 +79852,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -79882,7 +79882,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -79912,7 +79912,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -79942,7 +79942,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -79972,7 +79972,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -80002,7 +80002,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -80032,7 +80032,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -80062,7 +80062,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -80092,7 +80092,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -80122,7 +80122,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -80152,7 +80152,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -80182,7 +80182,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -80212,7 +80212,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -80242,7 +80242,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -80272,7 +80272,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -80302,7 +80302,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -80332,7 +80332,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -80362,7 +80362,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -80392,7 +80392,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -80422,7 +80422,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -80452,7 +80452,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -80482,7 +80482,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -80512,7 +80512,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -80542,7 +80542,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -80572,7 +80572,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -80602,7 +80602,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -80632,7 +80632,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -80662,7 +80662,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -80692,7 +80692,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -80722,7 +80722,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -80752,7 +80752,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -80782,7 +80782,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -80812,7 +80812,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -80842,7 +80842,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -80872,7 +80872,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -80902,7 +80902,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -80932,7 +80932,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -80962,7 +80962,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -80992,7 +80992,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -81022,7 +81022,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -81052,7 +81052,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -81082,7 +81082,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -81112,7 +81112,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -81142,7 +81142,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -81172,7 +81172,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -81202,7 +81202,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -81232,7 +81232,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -81262,7 +81262,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -81292,7 +81292,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -81322,7 +81322,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -81352,7 +81352,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -81382,7 +81382,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -81412,7 +81412,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -81442,7 +81442,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -81472,7 +81472,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -81502,7 +81502,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -81532,7 +81532,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -81562,7 +81562,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -81592,7 +81592,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -81622,7 +81622,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -81652,7 +81652,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -81682,7 +81682,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -81712,7 +81712,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -81742,7 +81742,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -81772,7 +81772,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -81802,7 +81802,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -81832,7 +81832,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -81862,7 +81862,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -81892,7 +81892,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -81922,7 +81922,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -81952,7 +81952,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -81982,7 +81982,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -82012,7 +82012,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -82042,7 +82042,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -82072,7 +82072,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -82102,7 +82102,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -82132,7 +82132,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -82162,7 +82162,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -82192,7 +82192,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -82222,7 +82222,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -82252,7 +82252,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -82282,7 +82282,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -82312,7 +82312,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -82342,7 +82342,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -82372,7 +82372,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -82402,7 +82402,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -82432,7 +82432,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -82462,7 +82462,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -82492,7 +82492,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -82522,7 +82522,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -82552,7 +82552,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -82582,7 +82582,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -82612,7 +82612,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -82642,7 +82642,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -82672,7 +82672,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -82702,7 +82702,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -82732,7 +82732,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -82762,7 +82762,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -82792,7 +82792,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -82822,7 +82822,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -82852,7 +82852,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -82882,7 +82882,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -82912,7 +82912,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -82942,7 +82942,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -82972,7 +82972,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -83002,7 +83002,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -83032,7 +83032,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -83062,7 +83062,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -83092,7 +83092,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -83122,7 +83122,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -83152,7 +83152,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -83182,7 +83182,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -83212,7 +83212,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -83242,7 +83242,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -83272,7 +83272,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -83302,7 +83302,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -83332,7 +83332,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -83362,7 +83362,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -83392,7 +83392,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -83422,7 +83422,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -83452,7 +83452,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -83482,7 +83482,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -83512,7 +83512,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -83542,7 +83542,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -83572,7 +83572,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -83602,7 +83602,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -83632,7 +83632,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -83662,7 +83662,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -83692,7 +83692,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -83722,7 +83722,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -83752,7 +83752,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -83782,7 +83782,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -83812,7 +83812,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -83842,7 +83842,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -83872,7 +83872,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -83902,7 +83902,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -83932,7 +83932,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -83962,7 +83962,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -83992,7 +83992,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -84022,7 +84022,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -84052,7 +84052,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -84082,7 +84082,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -84112,7 +84112,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -84142,7 +84142,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -84172,7 +84172,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -84202,7 +84202,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -84232,7 +84232,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -84262,7 +84262,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -84292,7 +84292,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -84322,7 +84322,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -84352,7 +84352,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -84382,7 +84382,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -84412,7 +84412,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -84442,7 +84442,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -84472,7 +84472,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -84502,7 +84502,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -84532,7 +84532,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -84562,7 +84562,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -84592,7 +84592,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -84622,7 +84622,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -84652,7 +84652,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -84682,7 +84682,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -84712,7 +84712,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -84742,7 +84742,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -84772,7 +84772,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -84802,7 +84802,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -84832,7 +84832,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -84862,7 +84862,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -84892,7 +84892,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -84922,7 +84922,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -84952,7 +84952,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -84982,7 +84982,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -85012,7 +85012,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -85042,7 +85042,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -85072,7 +85072,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -85102,7 +85102,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -85132,7 +85132,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -85162,7 +85162,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -85192,7 +85192,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -85222,7 +85222,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -85252,7 +85252,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -85282,7 +85282,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -85312,7 +85312,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -85342,7 +85342,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -85372,7 +85372,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -85402,7 +85402,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -85432,7 +85432,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -85462,7 +85462,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -85492,7 +85492,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -85522,7 +85522,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -85552,7 +85552,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -85582,7 +85582,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -85612,7 +85612,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -85642,7 +85642,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -85672,7 +85672,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -85702,7 +85702,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -85732,7 +85732,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -85762,7 +85762,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -85792,7 +85792,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -85822,7 +85822,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -85852,7 +85852,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -85882,7 +85882,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -85912,7 +85912,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -85942,7 +85942,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -85972,7 +85972,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -86002,7 +86002,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -86032,7 +86032,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -86062,7 +86062,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -86092,7 +86092,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -86122,7 +86122,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -86152,7 +86152,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -86182,7 +86182,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -86212,7 +86212,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -86242,7 +86242,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -86272,7 +86272,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -86302,7 +86302,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -86332,7 +86332,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -86362,7 +86362,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -86392,7 +86392,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -86422,7 +86422,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -86452,7 +86452,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -86482,7 +86482,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -86512,7 +86512,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -86542,7 +86542,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -86572,7 +86572,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -86602,7 +86602,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -86632,7 +86632,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -86662,7 +86662,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -86692,7 +86692,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -86722,7 +86722,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -86752,7 +86752,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -86782,7 +86782,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -86812,7 +86812,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -86842,7 +86842,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -86872,7 +86872,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -86902,7 +86902,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -86932,7 +86932,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -86962,7 +86962,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -86992,7 +86992,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -87022,7 +87022,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -87052,7 +87052,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -87082,7 +87082,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -87112,7 +87112,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -87142,7 +87142,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -87172,7 +87172,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -87202,7 +87202,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -87232,7 +87232,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -87262,7 +87262,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -87292,7 +87292,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -87322,7 +87322,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -87352,7 +87352,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -87382,7 +87382,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -87412,7 +87412,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -87442,7 +87442,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -87472,7 +87472,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -87502,7 +87502,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -87532,7 +87532,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -87562,7 +87562,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -87592,7 +87592,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -87622,7 +87622,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -87652,7 +87652,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -87682,7 +87682,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -87712,7 +87712,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -87742,7 +87742,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -87772,7 +87772,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -87802,7 +87802,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -87832,7 +87832,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -87862,7 +87862,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -87892,7 +87892,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -87922,7 +87922,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -87952,7 +87952,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -87982,7 +87982,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -88012,7 +88012,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -88042,7 +88042,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -88072,7 +88072,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -88102,7 +88102,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -88132,7 +88132,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -88162,7 +88162,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -88192,7 +88192,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -88222,7 +88222,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -88252,7 +88252,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -88282,7 +88282,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -88312,7 +88312,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -88342,7 +88342,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -88372,7 +88372,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -88402,7 +88402,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -88432,7 +88432,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -88462,7 +88462,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -88492,7 +88492,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -88522,7 +88522,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -88552,7 +88552,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -88582,7 +88582,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -88612,7 +88612,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -88642,7 +88642,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -88672,7 +88672,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -88702,7 +88702,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -88732,7 +88732,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -88762,7 +88762,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -88792,7 +88792,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -88822,7 +88822,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -88852,7 +88852,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -88882,7 +88882,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -88912,7 +88912,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -88942,7 +88942,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -88972,7 +88972,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -89002,7 +89002,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -89032,7 +89032,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -89062,7 +89062,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -89092,7 +89092,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -89122,7 +89122,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -89152,7 +89152,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -89182,7 +89182,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -89212,7 +89212,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -89242,7 +89242,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -89272,7 +89272,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -89302,7 +89302,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -89332,7 +89332,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -89362,7 +89362,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -89392,7 +89392,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -89422,7 +89422,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -89452,7 +89452,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -89482,7 +89482,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -89512,7 +89512,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -89542,7 +89542,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -89572,7 +89572,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -89602,7 +89602,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -89632,7 +89632,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -89662,7 +89662,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -89692,7 +89692,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -89726,7 +89726,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -89760,7 +89760,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -89794,7 +89794,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -89828,7 +89828,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -89862,7 +89862,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -89896,7 +89896,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -89930,7 +89930,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -89964,7 +89964,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -89998,7 +89998,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -90032,7 +90032,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -90066,7 +90066,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -90100,7 +90100,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -90134,7 +90134,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -90168,7 +90168,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -90202,7 +90202,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -90236,7 +90236,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -90270,7 +90270,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -90304,7 +90304,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -90338,7 +90338,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -90372,7 +90372,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -90406,7 +90406,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -90440,7 +90440,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -90474,7 +90474,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -90508,7 +90508,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -90542,7 +90542,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -90576,7 +90576,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -90610,7 +90610,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -90644,7 +90644,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -90678,7 +90678,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -90712,7 +90712,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -90746,7 +90746,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -90780,7 +90780,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -90814,7 +90814,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -90848,7 +90848,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -90882,7 +90882,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -90916,7 +90916,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -90950,7 +90950,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -90984,7 +90984,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -91018,7 +91018,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -91052,7 +91052,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -91086,7 +91086,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -91120,7 +91120,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -91154,7 +91154,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -91188,7 +91188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -91222,7 +91222,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -91256,7 +91256,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -91290,7 +91290,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -91324,7 +91324,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -91358,7 +91358,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -91392,7 +91392,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -91426,7 +91426,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -91460,7 +91460,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -91494,7 +91494,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -91528,7 +91528,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -91562,7 +91562,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -91596,7 +91596,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -91630,7 +91630,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -91664,7 +91664,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -91698,7 +91698,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -91732,7 +91732,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -91766,7 +91766,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -91800,7 +91800,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -91834,7 +91834,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -91868,7 +91868,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -91902,7 +91902,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -91936,7 +91936,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -91970,7 +91970,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -92004,7 +92004,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -92038,7 +92038,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -92072,7 +92072,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -92106,7 +92106,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -92140,7 +92140,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -92174,7 +92174,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -92208,7 +92208,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -92242,7 +92242,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -92276,7 +92276,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -92310,7 +92310,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -92344,7 +92344,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -92378,7 +92378,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -92412,7 +92412,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -92446,7 +92446,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -92480,7 +92480,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -92522,7 +92522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92550,45 +92550,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1017</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>458</v>
       </c>
     </row>
@@ -92603,7 +92588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92631,29 +92616,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>44.64%</t>
+          <t>97.21%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -92665,29 +92650,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>70.80%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -92699,49 +92684,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>44.64%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>51.92%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>31.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
